--- a/uft-one-sap-solution-manager-hosted-create-incident/Default.xlsx
+++ b/uft-one-sap-solution-manager-hosted-create-incident/Default.xlsx
@@ -529,7 +529,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>

--- a/uft-one-sap-solution-manager-hosted-create-incident/Default.xlsx
+++ b/uft-one-sap-solution-manager-hosted-create-incident/Default.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+  <si>
+    <t>Don</t>
+  </si>
   <si>
     <t>EN - English</t>
   </si>
@@ -24,6 +27,9 @@
   </si>
   <si>
     <t>UserName</t>
+  </si>
+  <si>
+    <t>IncidentPrefix</t>
   </si>
   <si>
     <t>bauera</t>
@@ -526,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -538,32 +544,39 @@
     <col min="2" max="2" width="9.80859375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.41796875" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.078125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.6171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row customFormat="1">
       <c t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c t="s">
+        <v>3</v>
+      </c>
+      <c t="s">
+        <v>7</v>
       </c>
       <c t="s">
         <v>2</v>
       </c>
       <c t="s">
-        <v>5</v>
-      </c>
-      <c t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row>
       <c s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c s="1" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c s="1" t="s">
+        <v>1</v>
       </c>
       <c s="3" t="s">
         <v>0</v>

--- a/uft-one-sap-solution-manager-hosted-create-incident/Default.xlsx
+++ b/uft-one-sap-solution-manager-hosted-create-incident/Default.xlsx
@@ -535,7 +535,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>

--- a/uft-one-sap-solution-manager-hosted-create-incident/Default.xlsx
+++ b/uft-one-sap-solution-manager-hosted-create-incident/Default.xlsx
@@ -15,23 +15,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>Don</t>
   </si>
   <si>
+    <t>SAP High Contrast Black (SAP Belize)</t>
+  </si>
+  <si>
     <t>EN - English</t>
   </si>
   <si>
     <t>Language</t>
   </si>
   <si>
+    <t>SAP Belize Deep</t>
+  </si>
+  <si>
+    <t>SAP Quartz Light</t>
+  </si>
+  <si>
+    <t>SAP Belize</t>
+  </si>
+  <si>
     <t>UserName</t>
   </si>
   <si>
     <t>IncidentPrefix</t>
   </si>
   <si>
+    <t>SAP High Contrast Black</t>
+  </si>
+  <si>
+    <t>SAP High Contrast White</t>
+  </si>
+  <si>
+    <t>SAP High Contrast White (SAP Belize)</t>
+  </si>
+  <si>
     <t>bauera</t>
   </si>
   <si>
@@ -45,6 +66,9 @@
   </si>
   <si>
     <t>https://www.sapsolutionmanagerdemo.com/sap/bc/ui5_ui5/ui2/ushell/shells/abap/FioriLaunchpad.html#Shell-home</t>
+  </si>
+  <si>
+    <t>Theme</t>
   </si>
 </sst>
 </file>
@@ -532,7 +556,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -545,41 +569,168 @@
     <col min="3" max="3" width="9.41796875" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6171875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.078125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="30.83984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row customFormat="1">
       <c t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c t="s">
+        <v>7</v>
+      </c>
+      <c t="s">
+        <v>14</v>
       </c>
       <c t="s">
         <v>3</v>
       </c>
       <c t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c t="s">
-        <v>2</v>
-      </c>
-      <c t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row>
       <c s="1" t="s">
+        <v>16</v>
+      </c>
+      <c s="1" t="s">
+        <v>12</v>
+      </c>
+      <c s="1" t="s">
+        <v>13</v>
+      </c>
+      <c s="1" t="s">
+        <v>2</v>
+      </c>
+      <c s="1" t="s">
+        <v>0</v>
+      </c>
+      <c s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row>
+      <c s="1" t="s">
+        <v>16</v>
+      </c>
+      <c s="1" t="s">
+        <v>12</v>
+      </c>
+      <c s="1" t="s">
+        <v>13</v>
+      </c>
+      <c s="1" t="s">
+        <v>2</v>
+      </c>
+      <c s="1" t="s">
+        <v>0</v>
+      </c>
+      <c s="3" t="s">
         <v>9</v>
       </c>
-      <c s="1" t="s">
+    </row>
+    <row>
+      <c s="1" t="s">
+        <v>16</v>
+      </c>
+      <c s="1" t="s">
+        <v>12</v>
+      </c>
+      <c s="1" t="s">
+        <v>13</v>
+      </c>
+      <c s="1" t="s">
+        <v>2</v>
+      </c>
+      <c s="1" t="s">
+        <v>0</v>
+      </c>
+      <c s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row>
+      <c s="1" t="s">
+        <v>16</v>
+      </c>
+      <c s="1" t="s">
+        <v>12</v>
+      </c>
+      <c s="1" t="s">
+        <v>13</v>
+      </c>
+      <c s="1" t="s">
+        <v>2</v>
+      </c>
+      <c s="1" t="s">
+        <v>0</v>
+      </c>
+      <c s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row>
+      <c s="1" t="s">
+        <v>16</v>
+      </c>
+      <c s="1" t="s">
+        <v>12</v>
+      </c>
+      <c s="1" t="s">
+        <v>13</v>
+      </c>
+      <c s="1" t="s">
+        <v>2</v>
+      </c>
+      <c s="1" t="s">
+        <v>0</v>
+      </c>
+      <c s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row>
+      <c s="1" t="s">
+        <v>16</v>
+      </c>
+      <c s="1" t="s">
+        <v>12</v>
+      </c>
+      <c s="1" t="s">
+        <v>13</v>
+      </c>
+      <c s="1" t="s">
+        <v>2</v>
+      </c>
+      <c s="1" t="s">
+        <v>0</v>
+      </c>
+      <c s="3" t="s">
         <v>5</v>
       </c>
-      <c s="1" t="s">
+    </row>
+    <row>
+      <c s="1" t="s">
+        <v>16</v>
+      </c>
+      <c s="1" t="s">
+        <v>12</v>
+      </c>
+      <c s="1" t="s">
+        <v>13</v>
+      </c>
+      <c s="1" t="s">
+        <v>2</v>
+      </c>
+      <c s="1" t="s">
+        <v>0</v>
+      </c>
+      <c s="3" t="s">
         <v>6</v>
-      </c>
-      <c s="1" t="s">
-        <v>1</v>
-      </c>
-      <c s="3" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
